--- a/Чек-лист.xlsx
+++ b/Чек-лист.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Название проверки</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Латиница (нижний регистр)</t>
   </si>
   <si>
-    <t>Специальные символы</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сохранение введённых данных </t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>2. Форма ввода задачи</t>
   </si>
   <si>
-    <t>Цифры</t>
-  </si>
-  <si>
     <t>Автоматическое заполнение поля "Идентификатор"</t>
   </si>
   <si>
@@ -164,6 +158,36 @@
   </si>
   <si>
     <t>Назначение статуса задачи:</t>
+  </si>
+  <si>
+    <t>Кириллица (верхний регистр)+Латиница (верхний регистр)</t>
+  </si>
+  <si>
+    <t>Латиница (верхний регистр)+Кириллица (нижний регистр)</t>
+  </si>
+  <si>
+    <t>Кириллица (верхний регистр)+Кириллица (нижний регистр)</t>
+  </si>
+  <si>
+    <t>Латиница (верхний регистр)+Латиница (нижний регистр)</t>
+  </si>
+  <si>
+    <t>Пробел перед данными</t>
+  </si>
+  <si>
+    <t>Пробел между данными</t>
+  </si>
+  <si>
+    <t>Пробел после данных</t>
+  </si>
+  <si>
+    <t>Пробелы (10 пробелов)</t>
+  </si>
+  <si>
+    <t>Цифры (10 цифр)</t>
+  </si>
+  <si>
+    <t>Специальные символы (10 символов)</t>
   </si>
 </sst>
 </file>
@@ -198,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -242,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -251,6 +281,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -577,354 +608,484 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>30</v>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
